--- a/data/Map110.xlsx
+++ b/data/Map110.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>自動実行</t>
   </si>
@@ -48,6 +48,10 @@
   <si>
     <t>\n&lt;\n[3]&gt;私ちょっとお腹空いてきちゃったー。
 少しでいいから精液飲ませてほしいなー♥</t>
+  </si>
+  <si>
+    <t>n\&lt;n[3]&gt;"I'm a little hungry.
+It's okay to drink your semen, if it's just a little.♥"</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;\n[1]ー♥こっち見てー♥</t>
@@ -58,9 +62,19 @@
 おいでよー♥</t>
   </si>
   <si>
+    <t>n\&lt;n[3]&gt;Put it between my boobs
+I'll make you all slimy ♥
+Come on♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるん♥にゅるん♥って動かしてー、
 おちんちんカチカチにしてあげるよー？
 にゅるん♥にゅるーん♥</t>
+  </si>
+  <si>
+    <t>n\&lt;n[3]&gt;schlorp♥ schlorp♥ Come on, keep moving,
+ I'm making your cock hard, right?
+schlorp♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;くすっ♥
@@ -548,7 +562,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,279 +570,288 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map110.xlsx
+++ b/data/Map110.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>自動実行</t>
   </si>
@@ -29,7 +29,17 @@
     <t xml:space="preserve"> &lt;enemy:99&gt;&lt;cw:1.5&gt;&lt;ch:1.5&gt;</t>
   </si>
   <si>
+    <t>灯り 5 3 255 0.3</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あっつ！！！</t>
+  </si>
+  <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
   </si>
   <si>
     <t>・・・！
@@ -39,6 +49,12 @@
     <t>ﾗｲﾑ誘惑</t>
   </si>
   <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
     <t>使えそうなものは・・・</t>
   </si>
   <si>
@@ -55,6 +71,12 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;\n[1]ー♥こっち見てー♥</t>
+  </si>
+  <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;おっぱいでおちんちん挟んで
@@ -87,6 +109,9 @@
 ねー♥おいでおいでー♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんなにおっきくしてるのに我慢するのー？
 一度出してすっきりした方がいいんじゃないかなー？
 出しておいた方がいいでしょー？ほーら♥</t>
@@ -97,6 +122,9 @@
 いっぱい甘えていいからねー♥</t>
   </si>
   <si>
+    <t>--------ここからクリア------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もー・・・
 こんなに誘ってるのにダメなのー？
 あーあ。</t>
@@ -120,6 +148,22 @@
   </si>
   <si>
     <t>nwayAim 1 1 0 0.1 60 3 42 786</t>
+  </si>
+  <si>
+    <t>ーーーーーー敵から受けるダメージーーーーーー</t>
+  </si>
+  <si>
+    <t>ーーーーーーーー被ダメエフェクトーーーーーーー</t>
+  </si>
+  <si>
+    <t>灯り 3 1 255 0.1</t>
+  </si>
+  <si>
+    <t>ーーーーーー基礎ヤラレモーションーーーーーー</t>
+  </si>
+  <si>
+    <t>0ちーんｗ 1倒れ 2ばたんきゅ 3溶ける 4燃える
+5射精 6吹っ飛ばす 7逃げこけ　8潰れる</t>
   </si>
   <si>
     <t>リリーの日記</t>
@@ -562,7 +606,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,288 +614,509 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map110.xlsx
+++ b/data/Map110.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13E695-DF58-4C0F-9544-F00ADEB70868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>自動実行</t>
   </si>
@@ -66,10 +72,6 @@
 少しでいいから精液飲ませてほしいなー♥</t>
   </si>
   <si>
-    <t>n\&lt;n[3]&gt;"I'm a little hungry.
-It's okay to drink your semen, if it's just a little.♥"</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;\n[1]ー♥こっち見てー♥</t>
   </si>
   <si>
@@ -84,21 +86,11 @@
 おいでよー♥</t>
   </si>
   <si>
-    <t>n\&lt;n[3]&gt;Put it between my boobs
-I'll make you all slimy ♥
-Come on♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;にゅるん♥にゅるん♥って動かしてー、
 おちんちんカチカチにしてあげるよー？
 にゅるん♥にゅるーん♥</t>
   </si>
   <si>
-    <t>n\&lt;n[3]&gt;schlorp♥ schlorp♥ Come on, keep moving,
- I'm making your cock hard, right?
-schlorp♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;くすっ♥
 おっぱいでいじめられるの想像しちゃったー？
 足が震えてきてるよー？</t>
@@ -268,19 +260,171 @@
   </si>
   <si>
     <t>EV028</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hottt!!!</t>
+  </si>
+  <si>
+    <t>…!
+There's a small door at the back of the fireplace…</t>
+  </si>
+  <si>
+    <t>There might be something useful…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What are you doing-?
+Hey, hey-.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;\n[1]-♥ Lookie here-♥</t>
+  </si>
+  <si>
+    <t>\n\&lt;n[3]&gt;"I'm a little hungry.
+It's okay to drink your semen, if it's just a little.♥"</t>
+  </si>
+  <si>
+    <t>\n\&lt;n[3]&gt;Put it between my boobs
+I'll make you all slimy ♥
+Come on♥</t>
+  </si>
+  <si>
+    <t>\n\&lt;n[3]&gt;schlorp♥ schlorp♥ Come on, keep moving,
+I'm making your cock hard, right?
+schlorp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hee♥
+Have you ever fantasized about being teased by my boobs-?
+Are your knees trembling-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No more running today,
+come and have some fun with me♥
+Please-♥ Come on, come on-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Why would you resist when it's so big-?
+Wouldn't it feel nice to cum just once-?
+Cum for me just one time-? Hoora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There you go♥
+Good little one-♥
+I'll take good care of you now-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Tsk...
+So you won't accept my invitation?
+Ahhh.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Well then, next time I'll have to catch you and drain you
+by force. And I won't be gentle♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're going to regret turning down my invitation
+when I catch you and milk you a whole bunch-♥</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Meeting Lime</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>The clock is ticking…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how long I'll be trapped here…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I've lost all sense of time…
+I need to get out of here soon…)</t>
+  </si>
+  <si>
+    <t>A hard, round stone…</t>
+  </si>
+  <si>
+    <t>Advanced looking books line the shelf…</t>
+  </si>
+  <si>
+    <t>An antique cabinet…</t>
+  </si>
+  <si>
+    <t>An antique bookshelf…</t>
+  </si>
+  <si>
+    <t>Simple! Build a hookshot in 4 easy steps!
+1: Cut some rope to a moderate length.
+2: Attach a sharp object to the tip of the rope.</t>
+  </si>
+  <si>
+    <t>3: Combine this, attach that…
+4: Throw it just like a weapon!
+That's it! It's so easy!</t>
+  </si>
+  <si>
+    <t>Hobby books line the shelf…</t>
+  </si>
+  <si>
+    <t>Aim at a sturdy pillar or tree, then fire!
+If you catch it, you'll go flying torwards it!</t>
+  </si>
+  <si>
+    <t>A houseplant…</t>
+  </si>
+  <si>
+    <t>Nothing else useful…</t>
+  </si>
+  <si>
+    <t>A book on spirituality…</t>
+  </si>
+  <si>
+    <t>\n[1] learned \C[3]『Qigong』\C[0]!</t>
+  </si>
+  <si>
+    <t>Closely monitor the behavior of guests such as tourists or
+dignitaries. In an emergency, each person is permitted to use \ndrugs or weapons at their own discretion.</t>
+  </si>
+  <si>
+    <t>You see your reflection in the mirror…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（*Smile*...♥）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(People sometimes say that my smile is weird.
+I guess it kinda is.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Weird.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（Hmm? If you look at this mirror closely...
+You can see right through to the other side.)</t>
+  </si>
+  <si>
+    <t>Make sure to water all the houseplants!
+Especially don't forget the potted plant in the crafting room!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;"I'm a little hungry.
+It's okay to drink your semen, if it's just a little.♥"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -291,28 +435,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -602,19 +758,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
+    <col min="3" max="3" width="84.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -638,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -646,33 +804,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -680,457 +844,558 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="C54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="C59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="C64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="C66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="C67" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>